--- a/teste/lista.xlsx
+++ b/teste/lista.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C552"/>
+  <dimension ref="A1:C550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2674,202 +2674,202 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Layer_vazio</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>GEOMANTA</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>H-DESCIDA_ESCADA</t>
-        </is>
-      </c>
       <c r="C152" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>15</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>243</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>23</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>ALVENARIA</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>351</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>H-TE_VALETA</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ALVENARIA</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>H-TE_VALETA</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2884,436 +2884,436 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ROCHA</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>H-BUEIRO_CELULAR</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>H-BUEIRO_CELULAR</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>H-BOCA_BUEIRO</t>
+          <t>H-TUBO-PEAD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>H-CRPP</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>H-TUBO-PEAD</t>
+          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>H-CRPP</t>
+          <t>POSTE_CONCRETO</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>POSTE_CONCRETO</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>Nível 1</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>BIOMANTA</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Nível 1</t>
+          <t>BIOMANTA</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BIOMANTA</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BIOMANTA</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -3334,187 +3334,187 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
+          <t>H-MODULO A</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
           <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>H-SARJETA_CONCRETO</t>
-        </is>
-      </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>H-MODULO A</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>H-BOCA_BUEIRO</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>H-TAMPA-CEGA</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3529,142 +3529,142 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>H-TAMPA-CEGA</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ROCHA</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>H-MODULO B</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>H-MODULO B</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>H-MODULO C</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>H-MODULO C</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>Cx. CINASITA</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>ALVENARIA</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Cx. CINASITA</t>
+          <t>ALVENARIA</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ALVENARIA</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ALVENARIA</t>
+          <t>Cx. CINASITA</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3679,22 +3679,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Cx. CINASITA</t>
+          <t>H-HZ-CAIXA_EXISTENTE</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3703,18 +3703,18 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>H-HZ-CAIXA_EXISTENTE</t>
+          <t>BIOMANTA</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -3729,67 +3729,67 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>BIOMANTA</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>H-BOCA_BUEIRO</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3799,12 +3799,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3819,97 +3819,97 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-TAMPA-CEGA</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>H-TAMPA-CEGA</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
+          <t>T-OA-OAE_EXISTENTE</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -3919,12 +3919,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>T-OA-OAE_EXISTENTE</t>
+          <t>H-HZ-CAIXA_EXISTENTE</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3934,132 +3934,132 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>H-HZ-CAIXA_EXISTENTE</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>H-BOCA_GALERIA</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>H-BOCA_GALERIA</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>BIOMANTA</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BIOMANTA</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>18</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>sinC_TELA_ANTIOFUSCANTE_BIM</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ROCHA</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>sinC_TELA_ANTIOFUSCANTE_BIM</t>
+          <t>Nível 1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Nível 1</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4069,22 +4069,22 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4093,13 +4093,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4108,13 +4108,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4123,37 +4123,37 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
@@ -4164,82 +4164,82 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
           <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>P-IMPERMEABILIZANTE</t>
-        </is>
-      </c>
       <c r="C251" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>H-MODULO B</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>H-MODULO B</t>
+          <t>H-MODULO A</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4249,42 +4249,42 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>H-MODULO A</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>H_TRANSICAO_TRAPEZ</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4294,147 +4294,147 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>H_TRANSICAO_TRAPEZ</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>BIOMANTA</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BIOMANTA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>LUMINÁRIA</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>LUMINÁRIA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>9</v>
+        <v>467</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4444,72 +4444,72 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4519,102 +4519,102 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>H_TRANSICAO_TRAPEZ</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>H_TRANSICAO_TRAPEZ</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4624,7 +4624,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>H-TAMPA-CEGA</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4639,72 +4639,72 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>H-TAMPA-CEGA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>H_TRANSICAO_TRAPEZ</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>H_TRANSICAO_TRAPEZ</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4714,46 +4714,46 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-HZ-CAIXA_EXISTENTE</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>H_TRANSICAO_TRAPEZ</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>H-HZ-CAIXA_EXISTENTE</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>H_TRANSICAO_TRAPEZ</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="290">
@@ -4764,67 +4764,67 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>H-TE_VALETA</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>H-TE_VALETA</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -4834,132 +4834,132 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>Meio_Fio</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Meio_Fio</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>H-CRPP</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4969,12 +4969,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>H-CRPP</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -4984,117 +4984,117 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>BIOMANTA</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BIOMANTA</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
+          <t>BGMC</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
           <t>P-LIGANTE</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
-        </is>
-      </c>
       <c r="C308" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>H_TRANSICAO_RET</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>H_TRANSICAO_RET</t>
+          <t>H-MODULO D</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>H-MODULO D</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -5104,112 +5104,112 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>57</v>
+        <v>143</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5233,22 +5233,22 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323">
@@ -5259,47 +5259,47 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5308,18 +5308,18 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -5329,57 +5329,57 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -5389,87 +5389,87 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
+          <t>sinC_DISPOSITIVOS_BIM</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
           <t>BGMC</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
-        </is>
-      </c>
       <c r="C335" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>BIOMANTA</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BIOMANTA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -5479,22 +5479,22 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5503,22 +5503,22 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341">
@@ -5529,62 +5529,62 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>POSTE_CONCRETO</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>POSTE_CONCRETO</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5599,117 +5599,117 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>BIOMANTA</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BIOMANTA</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>Meio_Fio</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Meio_Fio</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5719,12 +5719,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -5734,12 +5734,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>H-MODULO A</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -5749,52 +5749,52 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>H-MODULO A</t>
+          <t>Nível 1</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>Nível 1</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Nível 1</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nível 1</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-TE_VALETA</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>H-BOCA_BUEIRO</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5809,121 +5809,121 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>H-TE_VALETA</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>Meio_Fio</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Meio_Fio</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="368">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -5944,46 +5944,46 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>H_TRANSICAO_TRAPEZ</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>H_TRANSICAO_TRAPEZ</t>
+          <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -5994,122 +5994,122 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>H-BOCA_BUEIRO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>sinC_GUARDA_CORPO_BIM</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>sinC_GUARDA_CORPO_BIM</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="381">
@@ -6129,116 +6129,116 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>Meio_Fio</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Meio_Fio</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389">
@@ -6249,107 +6249,107 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
+          <t>sinC_BAR.CONCRETO_BIM</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
           <t>BGTC</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>B_CORRIDA</t>
-        </is>
-      </c>
       <c r="C392" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6358,33 +6358,33 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6394,12 +6394,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6409,67 +6409,67 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>FAIXAS_BIM</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6484,61 +6484,61 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>FAIXAS_BIM</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>BIOMANTA</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-CANALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BIOMANTA</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>H-CANALETA_CONCRETO</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6559,12 +6559,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
+          <t>BGS</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
           <t>H-SARJETA_GRAMA</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6574,57 +6574,57 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>H-CAIXA_COLETORA</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>H-CAIXA_COLETORA</t>
+          <t>sinC_GUARDA_CORPO_BIM</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6639,62 +6639,62 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>sinC_GUARDA_CORPO_BIM</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>FAIXAS_BIM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>FAIXAS_BIM</t>
+          <t>sinC_GUARDA_CORPO_BIM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6709,46 +6709,46 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>sinC_GUARDA_CORPO_BIM</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423">
@@ -6759,71 +6759,71 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>8</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1580</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -6834,67 +6834,67 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>sinC_OBRAS_BIM(temp)</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -6904,7 +6904,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>sinC_OBRAS_BIM(temp)</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -6913,213 +6913,213 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
+          <t>P-LIGANTE</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
           <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>CAUQ</t>
-        </is>
-      </c>
       <c r="C434" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>sinC_GUARDA_CORPO_BIM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>sinC_GUARDA_CORPO_BIM</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>sinC_GUARDA_CORPO_BIM</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>sinC_GUARDA_CORPO_BIM</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1582</v>
+        <v>41</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>H-TE_VALETA</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>H-TE_VALETA</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>H-CRPP</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>H-CRPP</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>sinC_TRANSICAO_BIM</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>3</v>
+        <v>570</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>570</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7129,87 +7129,87 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>Meio_Fio</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Meio_Fio</t>
+          <t>CERCA</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>PORTÃO</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>CERCA</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>PORTÃO</t>
+          <t>Nível 2</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>H-MODULO B</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Nível 2</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7219,27 +7219,27 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>H-MODULO B</t>
+          <t>Nível 1</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Nível 1</t>
+          <t>sinC_OBRAS_BIM(temp)</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7249,42 +7249,42 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>sinC_OBRAS_BIM(temp)</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>H-TE_VALETA</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>H-TE_VALETA</t>
+          <t>sinC_OBRAS_BIM(temp)</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7294,12 +7294,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>sinC_OBRAS_BIM(temp)</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>sinC_OBRAS_BIM(temp)</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7309,16 +7309,16 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>sinC_OBRAS_BIM(temp)</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="461">
@@ -7329,22 +7329,22 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7354,27 +7354,27 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>sinC_TRANSICAO_BIM</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -7384,31 +7384,31 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>REV_PRIMARIO</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>REV_PRIMARIO</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>13</v>
+        <v>491</v>
       </c>
     </row>
     <row r="467">
@@ -7419,22 +7419,22 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>sinC_OBRAS_BIM(temp)</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7444,31 +7444,31 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>sinC_OBRAS_BIM(temp)</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471">
@@ -7479,37 +7479,37 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
+          <t>FAIXAS_BIM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7519,52 +7519,52 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>FAIXAS_BIM</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>272</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>P-LIGANTE</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>P-LIGANTE</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7579,12 +7579,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7594,57 +7594,57 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>POSTE_CONCRETO</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>POSTE_CONCRETO</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>POSTE_CONCRETO</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>POSTE_CONCRETO</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>sinC_DISPOSITIVOS_BIM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>Nível 2</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -7654,42 +7654,42 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>sinC_DISPOSITIVOS_BIM</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Nível 2</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>Meio_Fio</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7699,57 +7699,57 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Meio_Fio</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>H_TRANSICAO_RET</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>Nível 1</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>H_TRANSICAO_RET</t>
+          <t>Nível 2</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2</v>
+        <v>121</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Nível 1</t>
+          <t>Nível 2</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Nível 2</t>
+          <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>121</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Nível 2</t>
+          <t>H_TRANSICAO_TRAPEZ</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>sinC_TRANSICAO_BIM</t>
+          <t>H-VALETA_CONCRETO</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7759,27 +7759,27 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>H_TRANSICAO_TRAPEZ</t>
+          <t>H-MODULO D</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>H-VALETA_CONCRETO</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
+          <t>BGTC</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
           <t>H-MODULO D</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7789,12 +7789,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>H-MODULO D</t>
+          <t>H-BUEIRO_CELULAR</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7804,12 +7804,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>POSTE_CONCRETO</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>H-BUEIRO_CELULAR</t>
+          <t>CERCA</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7819,121 +7819,121 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>POSTE_CONCRETO</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>CERCA</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
+          <t>FAIXAS_BIM</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
           <t>M_SECO</t>
         </is>
       </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>CAUQ</t>
-        </is>
-      </c>
       <c r="C495" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>FAIXAS_BIM</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>CFT</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>CERCA</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CFT</t>
+          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>CERCA</t>
+          <t>sinC_TELA_ANTIOFUSCANTE_BIM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>T-ESTRADA_NAO_PAVIMENTADA</t>
+          <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>sinC_TELA_ANTIOFUSCANTE_BIM</t>
+          <t>Level 0</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>sinC_TRANSICAO_BIM</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Level 0</t>
+          <t>BIOMANTA</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>BIOMANTA</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502">
@@ -7944,97 +7944,97 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>Nível 2</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>Nível 2</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Nível 2</t>
+          <t>sinC_OBRAS_BIM(temp)</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Nível 2</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>sinC_OBRAS_BIM(temp)</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>sinC_VERTICAL_BIM</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>sinC_VERTICAL_BIM</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>9528</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>LASTRO_PASSEIO</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>CAUQ</t>
+          <t>CONCRETO_PASSEIO</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>LASTRO_PASSEIO</t>
+          <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>CONCRETO_PASSEIO</t>
+          <t>Nível 1</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8044,12 +8044,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>sinC_TRANSICAO_BIM</t>
+          <t>H-TUBO DE QUEDA</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Nível 1</t>
+          <t>T-HM-TERRENO</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8059,12 +8059,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>H-TUBO DE QUEDA</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>T-HM-TERRENO</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8074,12 +8074,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>P-IMPERMEABILIZANTE</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8089,42 +8089,42 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>P-IMPERMEABILIZANTE</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>Cx. CINASITA</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Cx. CINASITA</t>
+          <t>ARVORE_ISOLADA</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8134,12 +8134,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
+          <t>LUMINÁRIA</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
           <t>ARVORE_ISOLADA</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>BGTC</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8149,72 +8149,72 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>LUMINÁRIA</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>ARVORE_ISOLADA</t>
+          <t>H-GARGULA</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>H-TUBO DE QUEDA</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>H-GARGULA</t>
+          <t>H-MODULO D</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>H-TUBO DE QUEDA</t>
+          <t>sinC_DEFENSAS_BIM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>H-MODULO D</t>
+          <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>sinC_DEFENSAS_BIM</t>
+          <t>H-TAMPA-CEGA</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>sinC_TRANSICAO_BIM</t>
+          <t>GEOMANTA</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>H-TAMPA-CEGA</t>
+          <t>H-TE_VALETA</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>GEOMANTA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8224,12 +8224,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>H-TE_VALETA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8239,12 +8239,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-CRPP</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>H-TE_VALETA</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -8254,12 +8254,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>H-CRPP</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>H-TE_VALETA</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -8269,42 +8269,42 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ROCHA</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ROCHA</t>
+          <t>H-SARJETA_CONCRETO</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>H-SARJETA_CONCRETO</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Base de CAD</t>
+          <t>COLCHÃO DRENANTE</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8314,12 +8314,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>H-SARJETA_GRAMA</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>COLCHÃO DRENANTE</t>
+          <t>GRAMA_HIDROSSEMEADURA</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8329,42 +8329,42 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>H-SARJETA_GRAMA</t>
+          <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>GRAMA_HIDROSSEMEADURA</t>
+          <t>sinC_TRANSICAO_BIM</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>sinC_TRANSICAO_BIM</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>sinC_TRANSICAO_BIM</t>
+          <t>H-DESCIDA_ENTRADA</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ENTRADA</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -8374,16 +8374,16 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Layer_vazio</t>
+          <t>H-MODULO C</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Nível 1</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>M_SECO</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -8404,12 +8404,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>H-MODULO C</t>
+          <t>BGMC</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>H-MODULO D</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8419,12 +8419,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>Nível 2</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>M_SECO</t>
+          <t>sinC_BAR.CONCRETO_BIM</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -8434,12 +8434,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>BGMC</t>
+          <t>GRAMA_PLACA</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>H-MODULO D</t>
+          <t>sinC_GUARDA_CORPO_BIM</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -8449,12 +8449,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Nível 2</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>sinC_BAR.CONCRETO_BIM</t>
+          <t>H-BOCA_BUEIRO</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -8464,12 +8464,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>GRAMA_PLACA</t>
+          <t>T-OA-OAE_EXISTENTE</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>sinC_GUARDA_CORPO_BIM</t>
+          <t>T-PISTA_PAVIMENTADA</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8479,12 +8479,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>T-OA-OAE_EXISTENTE</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>H-BOCA_BUEIRO</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -8494,87 +8494,87 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>T-OA-OAE_EXISTENTE</t>
+          <t>Modificação de família</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>T-PISTA_PAVIMENTADA</t>
+          <t>Modificação de família</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>T-OA-OAE_EXISTENTE</t>
+          <t>CAD 008</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>CAD 008</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Modificação de família</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Modificação de família</t>
+          <t>ROCHA</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>CAD 008</t>
+          <t>H-DESCIDA_ESCADA</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>CAD 008</t>
+          <t>H_TRANSICAO_RET</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ROCHA</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>ROCHA</t>
+          <t>H-TUBO DE QUEDA</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>H-DESCIDA_ESCADA</t>
+          <t>H-DISSIPADOR</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>H_TRANSICAO_RET</t>
+          <t>H-BOCA_GALERIA</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -8584,42 +8584,42 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>H-TUBO_CONCRETO</t>
+          <t>H-DESCIDA_RAPIDO</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>H-TUBO DE QUEDA</t>
+          <t>H-TE_VALETA</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>H-DISSIPADOR</t>
+          <t>LUMINÁRIA</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>H-BOCA_GALERIA</t>
+          <t>LUMINÁRIA</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>H-DESCIDA_RAPIDO</t>
+          <t>BGTC</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>H-TE_VALETA</t>
+          <t>T-BASE_GRANULAR</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -8629,75 +8629,45 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>LUMINÁRIA</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>LUMINÁRIA</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>BGTC</t>
+          <t>CAUQ</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>T-BASE_GRANULAR</t>
+          <t>B_CORRIDA</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>B_CORRIDA</t>
+          <t>Base de CAD</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>H-TUBO_CONCRETO</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>CAUQ</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>B_CORRIDA</t>
-        </is>
-      </c>
-      <c r="C551" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>Base de CAD</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>H-TUBO_CONCRETO</t>
-        </is>
-      </c>
-      <c r="C552" t="n">
         <v>1</v>
       </c>
     </row>
